--- a/workbreakdown.xlsx
+++ b/workbreakdown.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6555" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
   <si>
     <t>JYOTHY  INSTITUTE OF TECHNOLOGY</t>
   </si>
@@ -373,17 +378,20 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>Documentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -502,7 +510,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +589,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -633,51 +647,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -720,41 +692,89 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,6 +850,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1089,6 +1117,166 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1669676</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1377237" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6633882" y="36833735"/>
+          <a:ext cx="1377237" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:t>Maha Shivaratri</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="729367" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7070912" y="36990618"/>
+          <a:ext cx="729367" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Review</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="614977" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7126941" y="37214735"/>
+          <a:ext cx="614977" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1"/>
+            <a:t>Sunday</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1135,7 +1323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1167,9 +1355,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1201,6 +1407,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1376,14 +1600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170:J171"/>
+    <sheetView tabSelected="1" topLeftCell="B156" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125"/>
     <col min="2" max="2" width="17"/>
@@ -1397,135 +1621,135 @@
     <col min="12" max="256" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="75" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-    </row>
-    <row r="2" spans="1:19" ht="64.5" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-    </row>
-    <row r="3" spans="1:19" ht="60" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-    </row>
-    <row r="6" spans="1:19" ht="44.25" customHeight="1">
-      <c r="B6" s="19" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="13" t="s">
+    <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75">
-      <c r="B8" s="22" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="36" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -1538,394 +1762,394 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="B10" s="22" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="F10" s="12" t="s">
+      <c r="D10" s="36"/>
+      <c r="F10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="30.75" customHeight="1">
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" ht="30" customHeight="1">
-      <c r="B12" s="22" t="s">
+      <c r="D11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:19" ht="31.5" customHeight="1">
-      <c r="B13" s="24" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="B14" s="22" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="B15" s="22" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="45" customHeight="1">
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="F16" s="9"/>
-      <c r="H16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B17" s="25"/>
-      <c r="H17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1">
-      <c r="B18" s="22" t="s">
+      <c r="D16" s="36"/>
+      <c r="F16" s="42"/>
+      <c r="H16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="H17" s="36"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="B19" s="22" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" ht="45" customHeight="1">
-      <c r="B20" s="24" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8" t="s">
+      <c r="E20" s="43"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27" t="s">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B22" s="29" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1">
-      <c r="B23" s="29" t="s">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
-      <c r="B24" s="29" t="s">
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
-      <c r="B25" s="29" t="s">
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
-      <c r="B26" s="29" t="s">
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
-      <c r="B27" s="29" t="s">
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B28" s="29" t="s">
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" s="29" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="B30" s="29" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="B31" s="29" t="s">
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="29" t="s">
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="29" t="s">
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="29" t="s">
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="29" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="29" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="29" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="36" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="29" t="s">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="29" t="s">
+      <c r="D38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="29" t="s">
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D40" t="s">
@@ -1941,8 +2165,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="29" t="s">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D41" t="s">
@@ -1958,8 +2182,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="29" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D42" t="s">
@@ -1975,1489 +2199,1483 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1">
-      <c r="B43" s="29" t="s">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="29" t="s">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="H44" s="12"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="29" t="s">
+      <c r="D44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="J44" s="36"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="H45" s="2" t="s">
+      <c r="D45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="H45" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="29" t="s">
+      <c r="J45" s="36"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="J46" s="2" t="s">
+      <c r="H46" s="32"/>
+      <c r="J46" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="29" t="s">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="H47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="29" t="s">
+      <c r="D47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="H47" s="32"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="H48" s="2"/>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="29" t="s">
+      <c r="D48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="H48" s="32"/>
+      <c r="J48" s="32"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="29" t="s">
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="29" t="s">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="30">
+      <c r="D51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="16">
         <v>42675</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="31">
+      <c r="D52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="17">
         <v>42676</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="F53" s="2" t="s">
+      <c r="D53" s="32"/>
+      <c r="F53" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="2"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="31">
+      <c r="H53" s="32"/>
+      <c r="J53" s="32"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="17">
         <v>42677</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="H54" s="2" t="s">
+      <c r="D54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="H54" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="31">
+      <c r="J54" s="32"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="17">
         <v>42678</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="2:10" ht="13.9" customHeight="1">
-      <c r="B56" s="31">
+      <c r="D55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="J55" s="32"/>
+    </row>
+    <row r="56" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="17">
         <v>42679</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="F56" s="34" t="s">
+      <c r="D56" s="32"/>
+      <c r="F56" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H56" s="2"/>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="31">
+      <c r="H56" s="32"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="17">
         <v>42680</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="F57" s="34"/>
-      <c r="H57" s="2"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="31">
+      <c r="D57" s="32"/>
+      <c r="F57" s="33"/>
+      <c r="H57" s="32"/>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="17">
         <v>42681</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="F58" s="34"/>
-      <c r="H58" s="2"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="31">
+      <c r="D58" s="32"/>
+      <c r="F58" s="33"/>
+      <c r="H58" s="32"/>
+      <c r="J58" s="32"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="17">
         <v>42682</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="31">
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="17">
         <v>42683</v>
       </c>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="31">
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="17">
         <v>42684</v>
       </c>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="31">
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="17">
         <v>42685</v>
       </c>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="31">
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="17">
         <v>42686</v>
       </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="31">
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="17">
         <v>42687</v>
       </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="31">
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="17">
         <v>42688</v>
       </c>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="31">
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="17">
         <v>42689</v>
       </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="31">
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="17">
         <v>42690</v>
       </c>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-    </row>
-    <row r="68" spans="2:10" ht="13.9" customHeight="1">
-      <c r="B68" s="31">
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+    </row>
+    <row r="68" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="17">
         <v>42691</v>
       </c>
-      <c r="D68" s="36" t="s">
+      <c r="D68" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F68" s="36" t="s">
+      <c r="F68" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="H68" s="36" t="s">
+      <c r="H68" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="J68" s="37" t="s">
+      <c r="J68" s="29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="31">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="17">
         <v>42692</v>
       </c>
-      <c r="D69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="J69" s="37"/>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="31">
+      <c r="D69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="J69" s="29"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="17">
         <v>42693</v>
       </c>
-      <c r="D70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="J70" s="37"/>
-    </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="31">
+      <c r="D70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="J70" s="29"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="17">
         <v>42694</v>
       </c>
-      <c r="D71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="J71" s="37"/>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="31">
+      <c r="D71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="17">
         <v>42695</v>
       </c>
-      <c r="D72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="J72" s="37"/>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="31">
+      <c r="D72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="J72" s="29"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="17">
         <v>42696</v>
       </c>
-      <c r="D73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="J73" s="37"/>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="B74" s="31">
+      <c r="D73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="J73" s="29"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="17">
         <v>42697</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="J74" s="37"/>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="B75" s="31">
+      <c r="D74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="J74" s="29"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="17">
         <v>42698</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="J75" s="37"/>
-    </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="31">
+      <c r="D75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="J75" s="29"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="17">
         <v>42699</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="J76" s="37"/>
-    </row>
-    <row r="77" spans="2:10">
-      <c r="B77" s="31">
+      <c r="D76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="J76" s="29"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="17">
         <v>42700</v>
       </c>
-      <c r="D77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="J77" s="37"/>
-    </row>
-    <row r="78" spans="2:10">
-      <c r="B78" s="31">
+      <c r="D77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="17">
         <v>42701</v>
       </c>
-      <c r="D78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="J78" s="37"/>
-    </row>
-    <row r="79" spans="2:10">
-      <c r="B79" s="31">
+      <c r="D78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="J78" s="29"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="17">
         <v>42702</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-    </row>
-    <row r="80" spans="2:10">
-      <c r="B80" s="31">
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="17">
         <v>42703</v>
       </c>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="B81" s="31">
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="17">
         <v>42704</v>
       </c>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-    </row>
-    <row r="82" spans="2:10">
-      <c r="B82" s="31">
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="17">
         <v>42705</v>
       </c>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" s="31">
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="17">
         <v>42706</v>
       </c>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="B84" s="31">
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="17">
         <v>42707</v>
       </c>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="B85" s="31">
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="17">
         <v>42708</v>
       </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-    </row>
-    <row r="86" spans="2:10">
-      <c r="B86" s="31">
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="17">
         <v>42709</v>
       </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-    </row>
-    <row r="87" spans="2:10">
-      <c r="B87" s="31">
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="17">
         <v>42710</v>
       </c>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-    </row>
-    <row r="88" spans="2:10">
-      <c r="B88" s="31">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="17">
         <v>42711</v>
       </c>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="31">
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="17">
         <v>42712</v>
       </c>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="B90" s="31">
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="17">
         <v>42713</v>
       </c>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="31">
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="17">
         <v>42714</v>
       </c>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="31">
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="17">
         <v>42715</v>
       </c>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="31">
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="17">
         <v>42716</v>
       </c>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="31">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="17">
         <v>42717</v>
       </c>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="31">
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="17">
         <v>42718</v>
       </c>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="31">
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="17">
         <v>42719</v>
       </c>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="38"/>
-    </row>
-    <row r="97" spans="2:10">
-      <c r="B97" s="31">
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="17">
         <v>42720</v>
       </c>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="38"/>
-    </row>
-    <row r="98" spans="2:10">
-      <c r="B98" s="31">
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="17">
         <v>42721</v>
       </c>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="38"/>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="31">
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="17">
         <v>42722</v>
       </c>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="38"/>
-    </row>
-    <row r="100" spans="2:10">
-      <c r="B100" s="31">
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="17">
         <v>42723</v>
       </c>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="38"/>
-    </row>
-    <row r="101" spans="2:10">
-      <c r="B101" s="31">
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="17">
         <v>42724</v>
       </c>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="38"/>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="31">
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="17">
         <v>42725</v>
       </c>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="38"/>
-    </row>
-    <row r="103" spans="2:10">
-      <c r="B103" s="31">
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="17">
         <v>42726</v>
       </c>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="38"/>
-    </row>
-    <row r="104" spans="2:10">
-      <c r="B104" s="31">
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="17">
         <v>42727</v>
       </c>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="38"/>
-      <c r="J104" s="38"/>
-    </row>
-    <row r="105" spans="2:10">
-      <c r="B105" s="31">
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="17">
         <v>42728</v>
       </c>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="38"/>
-    </row>
-    <row r="106" spans="2:10">
-      <c r="B106" s="31">
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="17">
         <v>42729</v>
       </c>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="38"/>
-      <c r="G106" s="38"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="38"/>
-      <c r="J106" s="38"/>
-    </row>
-    <row r="107" spans="2:10">
-      <c r="B107" s="31">
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="17">
         <v>42730</v>
       </c>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="38"/>
-    </row>
-    <row r="108" spans="2:10">
-      <c r="B108" s="31">
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="17">
         <v>42731</v>
       </c>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="38"/>
-    </row>
-    <row r="109" spans="2:10">
-      <c r="B109" s="31">
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="17">
         <v>42732</v>
       </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="38"/>
-    </row>
-    <row r="110" spans="2:10">
-      <c r="B110" s="31">
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="17">
         <v>42733</v>
       </c>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="38"/>
-      <c r="J110" s="38"/>
-    </row>
-    <row r="111" spans="2:10">
-      <c r="B111" s="31">
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="17">
         <v>42734</v>
       </c>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="38"/>
-    </row>
-    <row r="112" spans="2:10">
-      <c r="B112" s="31">
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="17">
         <v>42735</v>
       </c>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="38"/>
-    </row>
-    <row r="115" spans="2:10">
-      <c r="B115" s="32"/>
-    </row>
-    <row r="118" spans="2:10">
-      <c r="B118" s="33"/>
-    </row>
-    <row r="119" spans="2:10" ht="13.9" customHeight="1">
-      <c r="B119" s="33"/>
-    </row>
-    <row r="120" spans="2:10">
-      <c r="B120" s="33">
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="18"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="19"/>
+    </row>
+    <row r="119" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="19"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="19">
         <v>42738</v>
       </c>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
-    </row>
-    <row r="121" spans="2:10">
-      <c r="B121" s="33">
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="20"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="19">
         <v>42739</v>
       </c>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
-    </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="33">
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="19">
         <v>42740</v>
       </c>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-    </row>
-    <row r="123" spans="2:10">
-      <c r="B123" s="33">
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="19">
         <v>42741</v>
       </c>
-      <c r="D123" s="41"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
-    </row>
-    <row r="124" spans="2:10">
-      <c r="B124" s="33">
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="19">
         <v>42742</v>
       </c>
-      <c r="D124" s="41"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="41"/>
-      <c r="J124" s="41"/>
-    </row>
-    <row r="125" spans="2:10">
-      <c r="B125" s="33">
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="19">
         <v>42743</v>
       </c>
-      <c r="D125" s="41"/>
-      <c r="E125" s="41"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
-    </row>
-    <row r="126" spans="2:10">
-      <c r="B126" s="33">
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="19">
         <v>42744</v>
       </c>
-      <c r="D126" s="41"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
-    </row>
-    <row r="127" spans="2:10">
-      <c r="B127" s="33">
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="19">
         <v>42745</v>
       </c>
-      <c r="D127" s="41"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
-    </row>
-    <row r="128" spans="2:10">
-      <c r="B128" s="33">
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="19">
         <v>42746</v>
       </c>
-      <c r="D128" s="41"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="41"/>
-      <c r="G128" s="41"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="41"/>
-      <c r="J128" s="41"/>
-    </row>
-    <row r="129" spans="2:10">
-      <c r="B129" s="33">
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="20"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="19">
         <v>42747</v>
       </c>
-      <c r="D129" s="41"/>
-      <c r="E129" s="41"/>
-      <c r="F129" s="41"/>
-      <c r="G129" s="41"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="41"/>
-      <c r="J129" s="41"/>
-    </row>
-    <row r="130" spans="2:10">
-      <c r="B130" s="33">
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="20"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="19">
         <v>42748</v>
       </c>
-      <c r="D130" s="39" t="s">
+      <c r="D130" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E130" s="39"/>
-      <c r="F130" s="39"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="39"/>
-      <c r="I130" s="39"/>
-      <c r="J130" s="39"/>
-    </row>
-    <row r="131" spans="2:10">
-      <c r="B131" s="33">
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
+      <c r="J130" s="26"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="19">
         <v>42749</v>
       </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="39"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="39"/>
-      <c r="J131" s="39"/>
-    </row>
-    <row r="132" spans="2:10">
-      <c r="B132" s="33">
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="19">
         <v>42750</v>
       </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
-      <c r="J132" s="39"/>
-    </row>
-    <row r="133" spans="2:10">
-      <c r="B133" s="33">
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="26"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="19">
         <v>42751</v>
       </c>
-      <c r="D133" s="40" t="s">
+      <c r="D133" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E133" s="40"/>
-      <c r="F133" s="40"/>
-      <c r="G133" s="40"/>
-      <c r="H133" s="40"/>
-      <c r="I133" s="40"/>
-      <c r="J133" s="40"/>
-    </row>
-    <row r="134" spans="2:10">
-      <c r="B134" s="33">
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="19">
         <v>42752</v>
       </c>
-      <c r="D134" s="36" t="s">
+      <c r="D134" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E134" s="36"/>
-      <c r="F134" s="36"/>
-      <c r="G134" s="36"/>
-      <c r="H134" s="36"/>
-      <c r="J134" s="37" t="s">
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="J134" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
-      <c r="B135" s="33">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="19">
         <v>42753</v>
       </c>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="J135" s="37"/>
-    </row>
-    <row r="136" spans="2:10">
-      <c r="B136" s="33">
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
+      <c r="J135" s="29"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="19">
         <v>42754</v>
       </c>
-      <c r="D136" s="36"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="J136" s="37"/>
-    </row>
-    <row r="137" spans="2:10">
-      <c r="B137" s="33">
+      <c r="D136" s="28"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="28"/>
+      <c r="J136" s="29"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="19">
         <v>42755</v>
       </c>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="36"/>
-      <c r="J137" s="37"/>
-    </row>
-    <row r="138" spans="2:10">
-      <c r="B138" s="33">
+      <c r="D137" s="28"/>
+      <c r="E137" s="28"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="28"/>
+      <c r="J137" s="29"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="19">
         <v>42756</v>
       </c>
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="36"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="36"/>
-      <c r="J138" s="37"/>
-    </row>
-    <row r="139" spans="2:10">
-      <c r="B139" s="33">
+      <c r="D138" s="28"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
+      <c r="J138" s="29"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="19">
         <v>42757</v>
       </c>
-      <c r="D139" s="42" t="s">
+      <c r="D139" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E139" s="42"/>
-      <c r="F139" s="42"/>
-      <c r="H139" s="42" t="s">
+      <c r="E139" s="23"/>
+      <c r="F139" s="23"/>
+      <c r="H139" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J139" s="42" t="s">
+      <c r="J139" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
-      <c r="B140" s="33">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="19">
         <v>42758</v>
       </c>
-      <c r="D140" s="42"/>
-      <c r="E140" s="42"/>
-      <c r="F140" s="42"/>
-      <c r="H140" s="42"/>
-      <c r="J140" s="42"/>
-    </row>
-    <row r="141" spans="2:10">
-      <c r="B141" s="33">
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
+      <c r="H140" s="23"/>
+      <c r="J140" s="23"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="19">
         <v>42759</v>
       </c>
-      <c r="D141" s="42"/>
-      <c r="E141" s="42"/>
-      <c r="F141" s="42"/>
-      <c r="H141" s="42"/>
-      <c r="J141" s="42"/>
-    </row>
-    <row r="142" spans="2:10">
-      <c r="B142" s="33">
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
+      <c r="H141" s="23"/>
+      <c r="J141" s="23"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="19">
         <v>42760</v>
       </c>
-      <c r="D142" s="42"/>
-      <c r="E142" s="42"/>
-      <c r="F142" s="42"/>
-      <c r="H142" s="42"/>
-      <c r="J142" s="42"/>
-    </row>
-    <row r="143" spans="2:10">
-      <c r="B143" s="33">
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
+      <c r="H142" s="23"/>
+      <c r="J142" s="23"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="19">
         <v>42761</v>
       </c>
-      <c r="D143" s="42"/>
-      <c r="E143" s="42"/>
-      <c r="F143" s="42"/>
-      <c r="H143" s="42"/>
-      <c r="J143" s="42"/>
-    </row>
-    <row r="144" spans="2:10">
-      <c r="B144" s="33">
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23"/>
+      <c r="H143" s="23"/>
+      <c r="J143" s="23"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="19">
         <v>42762</v>
       </c>
-      <c r="D144" s="42"/>
-      <c r="E144" s="42"/>
-      <c r="F144" s="42"/>
-      <c r="H144" s="42"/>
-      <c r="J144" s="42"/>
-    </row>
-    <row r="145" spans="2:10">
-      <c r="B145" s="33">
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23"/>
+      <c r="H144" s="23"/>
+      <c r="J144" s="23"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="19">
         <v>42763</v>
       </c>
-      <c r="D145" s="42"/>
-      <c r="E145" s="42"/>
-      <c r="F145" s="42"/>
-      <c r="H145" s="42"/>
-      <c r="J145" s="42"/>
-    </row>
-    <row r="146" spans="2:10">
-      <c r="B146" s="33">
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23"/>
+      <c r="H145" s="23"/>
+      <c r="J145" s="23"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="19">
         <v>42764</v>
       </c>
-      <c r="D146" s="42"/>
-      <c r="E146" s="42"/>
-      <c r="F146" s="42"/>
-      <c r="H146" s="42"/>
-      <c r="J146" s="42"/>
-    </row>
-    <row r="147" spans="2:10">
-      <c r="B147" s="33">
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23"/>
+      <c r="H146" s="23"/>
+      <c r="J146" s="23"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="19">
         <v>42765</v>
       </c>
-      <c r="D147" s="42"/>
-      <c r="E147" s="42"/>
-      <c r="F147" s="42"/>
-      <c r="H147" s="42"/>
-      <c r="J147" s="42"/>
-    </row>
-    <row r="148" spans="2:10">
-      <c r="B148" s="33">
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="H147" s="23"/>
+      <c r="J147" s="23"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="19">
         <v>42766</v>
       </c>
-      <c r="D148" s="42" t="s">
+      <c r="D148" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E148" s="42"/>
-      <c r="F148" s="42"/>
-      <c r="H148" s="42" t="s">
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
+      <c r="H148" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="J148" s="42" t="s">
+      <c r="J148" s="23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
-      <c r="B149" s="33">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="19">
         <v>42767</v>
       </c>
-      <c r="D149" s="42"/>
-      <c r="E149" s="42"/>
-      <c r="F149" s="42"/>
-      <c r="H149" s="42"/>
-      <c r="J149" s="42"/>
-    </row>
-    <row r="150" spans="2:10">
-      <c r="B150" s="33">
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23"/>
+      <c r="H149" s="23"/>
+      <c r="J149" s="23"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="19">
         <v>42768</v>
       </c>
-      <c r="D150" s="42"/>
-      <c r="E150" s="42"/>
-      <c r="F150" s="42"/>
-      <c r="H150" s="42"/>
-      <c r="J150" s="42"/>
-    </row>
-    <row r="151" spans="2:10">
-      <c r="B151" s="33">
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23"/>
+      <c r="H150" s="23"/>
+      <c r="J150" s="23"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="19">
         <v>42769</v>
       </c>
-      <c r="D151" s="42"/>
-      <c r="E151" s="42"/>
-      <c r="F151" s="42"/>
-      <c r="H151" s="42"/>
-      <c r="J151" s="42"/>
-    </row>
-    <row r="152" spans="2:10">
-      <c r="B152" s="33">
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23"/>
+      <c r="H151" s="23"/>
+      <c r="J151" s="23"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="19">
         <v>42770</v>
       </c>
-      <c r="D152" s="42"/>
-      <c r="E152" s="42"/>
-      <c r="F152" s="42"/>
-      <c r="H152" s="42"/>
-      <c r="J152" s="42"/>
-    </row>
-    <row r="153" spans="2:10">
-      <c r="B153" s="33">
+      <c r="D152" s="23"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="23"/>
+      <c r="H152" s="23"/>
+      <c r="J152" s="23"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="19">
         <v>42771</v>
       </c>
-      <c r="D153" s="43"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="43"/>
-      <c r="G153" s="43"/>
-      <c r="H153" s="43"/>
-      <c r="I153" s="43"/>
-      <c r="J153" s="43"/>
-    </row>
-    <row r="154" spans="2:10">
-      <c r="B154" s="33">
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="24"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="19">
         <v>42772</v>
       </c>
-      <c r="D154" s="42" t="s">
+      <c r="D154" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E154" s="42"/>
-      <c r="F154" s="42"/>
-      <c r="H154" s="42" t="s">
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="H154" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I154" s="42"/>
-      <c r="J154" s="42"/>
-    </row>
-    <row r="155" spans="2:10">
-      <c r="B155" s="33">
+      <c r="I154" s="23"/>
+      <c r="J154" s="23"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="19">
         <v>42773</v>
       </c>
-      <c r="D155" s="42"/>
-      <c r="E155" s="42"/>
-      <c r="F155" s="42"/>
-      <c r="H155" s="42"/>
-      <c r="I155" s="42"/>
-      <c r="J155" s="42"/>
-    </row>
-    <row r="156" spans="2:10">
-      <c r="B156" s="33">
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="H155" s="23"/>
+      <c r="I155" s="23"/>
+      <c r="J155" s="23"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="19">
         <v>42774</v>
       </c>
-      <c r="D156" s="42"/>
-      <c r="E156" s="42"/>
-      <c r="F156" s="42"/>
-      <c r="H156" s="42"/>
-      <c r="I156" s="42"/>
-      <c r="J156" s="42"/>
-    </row>
-    <row r="157" spans="2:10">
-      <c r="B157" s="33">
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23"/>
+      <c r="H156" s="23"/>
+      <c r="I156" s="23"/>
+      <c r="J156" s="23"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="19">
         <v>42775</v>
       </c>
-      <c r="D157" s="42"/>
-      <c r="E157" s="42"/>
-      <c r="F157" s="42"/>
-      <c r="H157" s="42"/>
-      <c r="I157" s="42"/>
-      <c r="J157" s="42"/>
-    </row>
-    <row r="158" spans="2:10">
-      <c r="B158" s="33">
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="23"/>
+      <c r="H157" s="23"/>
+      <c r="I157" s="23"/>
+      <c r="J157" s="23"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="19">
         <v>42776</v>
       </c>
-      <c r="D158" s="42"/>
-      <c r="E158" s="42"/>
-      <c r="F158" s="42"/>
-      <c r="H158" s="42" t="s">
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23"/>
+      <c r="H158" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="I158" s="42"/>
-      <c r="J158" s="42"/>
-    </row>
-    <row r="159" spans="2:10">
-      <c r="B159" s="33">
+      <c r="I158" s="23"/>
+      <c r="J158" s="23"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="19">
         <v>42777</v>
       </c>
-      <c r="D159" s="42"/>
-      <c r="E159" s="42"/>
-      <c r="F159" s="42"/>
-      <c r="H159" s="42"/>
-      <c r="I159" s="42"/>
-      <c r="J159" s="42"/>
-    </row>
-    <row r="160" spans="2:10">
-      <c r="B160" s="33">
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23"/>
+      <c r="H159" s="23"/>
+      <c r="I159" s="23"/>
+      <c r="J159" s="23"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="19">
         <v>42778</v>
       </c>
-      <c r="D160" s="42"/>
-      <c r="E160" s="42"/>
-      <c r="F160" s="42"/>
-      <c r="H160" s="42"/>
-      <c r="I160" s="42"/>
-      <c r="J160" s="42"/>
-    </row>
-    <row r="161" spans="2:10">
-      <c r="B161" s="33">
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
+      <c r="H160" s="23"/>
+      <c r="I160" s="23"/>
+      <c r="J160" s="23"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="19">
         <v>42779</v>
       </c>
-      <c r="D161" s="42"/>
-      <c r="E161" s="42"/>
-      <c r="F161" s="42"/>
-      <c r="H161" s="42"/>
-      <c r="I161" s="42"/>
-      <c r="J161" s="42"/>
-    </row>
-    <row r="162" spans="2:10">
-      <c r="B162" s="33">
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
+      <c r="H161" s="23"/>
+      <c r="I161" s="23"/>
+      <c r="J161" s="23"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="19">
         <v>42780</v>
       </c>
-      <c r="D162" s="42" t="s">
+      <c r="D162" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E162" s="42"/>
-      <c r="F162" s="42"/>
-      <c r="H162" s="42" t="s">
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
+      <c r="H162" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="I162" s="42"/>
-      <c r="J162" s="42"/>
-    </row>
-    <row r="163" spans="2:10">
-      <c r="B163" s="33">
+      <c r="I162" s="23"/>
+      <c r="J162" s="23"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="19">
         <v>42781</v>
       </c>
-      <c r="D163" s="42"/>
-      <c r="E163" s="42"/>
-      <c r="F163" s="42"/>
-      <c r="H163" s="42"/>
-      <c r="I163" s="42"/>
-      <c r="J163" s="42"/>
-    </row>
-    <row r="164" spans="2:10">
-      <c r="B164" s="33">
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
+      <c r="H163" s="23"/>
+      <c r="I163" s="23"/>
+      <c r="J163" s="23"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="19">
         <v>42782</v>
       </c>
-      <c r="D164" s="42"/>
-      <c r="E164" s="42"/>
-      <c r="F164" s="42"/>
-      <c r="H164" s="42"/>
-      <c r="I164" s="42"/>
-      <c r="J164" s="42"/>
-    </row>
-    <row r="165" spans="2:10">
-      <c r="B165" s="33">
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="H164" s="23"/>
+      <c r="I164" s="23"/>
+      <c r="J164" s="23"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="19">
         <v>42783</v>
       </c>
-      <c r="D165" s="42"/>
-      <c r="E165" s="42"/>
-      <c r="F165" s="42"/>
-      <c r="H165" s="42" t="s">
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
+      <c r="H165" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="I165" s="42"/>
-      <c r="J165" s="42"/>
-    </row>
-    <row r="166" spans="2:10">
-      <c r="B166" s="33">
+      <c r="I165" s="23"/>
+      <c r="J165" s="23"/>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="19">
         <v>42784</v>
       </c>
-      <c r="D166" s="42"/>
-      <c r="E166" s="42"/>
-      <c r="F166" s="42"/>
-      <c r="H166" s="42"/>
-      <c r="I166" s="42"/>
-      <c r="J166" s="42"/>
-    </row>
-    <row r="167" spans="2:10" ht="18.75">
-      <c r="B167" s="33">
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23"/>
+      <c r="H166" s="23"/>
+      <c r="I166" s="23"/>
+      <c r="J166" s="23"/>
+    </row>
+    <row r="167" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B167" s="19">
         <v>42785</v>
       </c>
-      <c r="D167" s="44"/>
-      <c r="E167" s="44"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="45" t="s">
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="H167" s="44"/>
-      <c r="I167" s="44"/>
-      <c r="J167" s="44"/>
-    </row>
-    <row r="168" spans="2:10">
-      <c r="B168" s="33">
+      <c r="H167" s="21"/>
+      <c r="I167" s="21"/>
+      <c r="J167" s="21"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="19">
         <v>42786</v>
       </c>
-      <c r="D168" s="42"/>
-      <c r="E168" s="42"/>
-      <c r="F168" s="42"/>
-      <c r="G168" s="42"/>
-      <c r="H168" s="42"/>
-      <c r="I168" s="42"/>
-      <c r="J168" s="42"/>
-    </row>
-    <row r="169" spans="2:10">
-      <c r="B169" s="33">
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="23"/>
+      <c r="I168" s="23"/>
+      <c r="J168" s="23"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169" s="19">
         <v>42787</v>
       </c>
-      <c r="D169" s="42"/>
-      <c r="E169" s="42"/>
-      <c r="F169" s="42"/>
-      <c r="G169" s="42"/>
-      <c r="H169" s="42"/>
-      <c r="I169" s="42"/>
-      <c r="J169" s="42"/>
-    </row>
-    <row r="170" spans="2:10">
-      <c r="B170" s="33">
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="23"/>
+      <c r="H169" s="23"/>
+      <c r="I169" s="23"/>
+      <c r="J169" s="23"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="19">
         <v>42788</v>
       </c>
-      <c r="D170" s="42"/>
-      <c r="E170" s="42"/>
-      <c r="F170" s="42"/>
-      <c r="G170" s="42"/>
-      <c r="H170" s="42"/>
-      <c r="I170" s="42"/>
-      <c r="J170" s="42"/>
-    </row>
-    <row r="171" spans="2:10">
-      <c r="B171" s="33">
+      <c r="D170" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E170" s="23"/>
+      <c r="F170" s="23"/>
+      <c r="G170" s="23"/>
+      <c r="H170" s="23"/>
+      <c r="I170" s="23"/>
+      <c r="J170" s="23"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" s="19">
         <v>42789</v>
       </c>
-      <c r="D171" s="42"/>
-      <c r="E171" s="42"/>
-      <c r="F171" s="42"/>
-      <c r="G171" s="42"/>
-      <c r="H171" s="42"/>
-      <c r="I171" s="42"/>
-      <c r="J171" s="42"/>
-    </row>
-    <row r="172" spans="2:10">
-      <c r="B172" s="33">
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="23"/>
+      <c r="I171" s="23"/>
+      <c r="J171" s="23"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="19">
         <v>42790</v>
       </c>
+      <c r="D172" s="46"/>
+      <c r="E172" s="46"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="46"/>
+      <c r="H172" s="46"/>
+      <c r="I172" s="46"/>
+      <c r="J172" s="46"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="19">
+        <v>42791</v>
+      </c>
+      <c r="D173" s="47"/>
+      <c r="E173" s="47"/>
+      <c r="F173" s="47"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="47"/>
+      <c r="I173" s="47"/>
+      <c r="J173" s="47"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="19">
+        <v>42792</v>
+      </c>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="24"/>
+      <c r="H174" s="24"/>
+      <c r="I174" s="24"/>
+      <c r="J174" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="D170:J171"/>
-    <mergeCell ref="D168:J169"/>
-    <mergeCell ref="D153:J153"/>
-    <mergeCell ref="D154:F161"/>
-    <mergeCell ref="H154:J157"/>
-    <mergeCell ref="H158:J161"/>
-    <mergeCell ref="D162:F166"/>
-    <mergeCell ref="H162:J164"/>
-    <mergeCell ref="H165:J166"/>
-    <mergeCell ref="H139:H147"/>
-    <mergeCell ref="J139:J147"/>
-    <mergeCell ref="D148:F152"/>
-    <mergeCell ref="H148:H152"/>
-    <mergeCell ref="J148:J152"/>
-    <mergeCell ref="D139:F147"/>
-    <mergeCell ref="D79:J112"/>
-    <mergeCell ref="D130:J132"/>
-    <mergeCell ref="D133:J133"/>
-    <mergeCell ref="D134:H138"/>
-    <mergeCell ref="J134:J138"/>
-    <mergeCell ref="D59:J67"/>
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="F68:F78"/>
-    <mergeCell ref="H68:H78"/>
-    <mergeCell ref="J68:J78"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="D50:D58"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="J50:J58"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="H45:H48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="C22:J28"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D30:J36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="J37:J38"/>
+  <mergeCells count="72">
+    <mergeCell ref="D172:J172"/>
+    <mergeCell ref="D173:J173"/>
+    <mergeCell ref="D174:J174"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="D12:J13"/>
     <mergeCell ref="D14:J14"/>
     <mergeCell ref="D15:D16"/>
@@ -3471,13 +3689,55 @@
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C22:J28"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D30:J36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="D50:D58"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="J50:J58"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="D59:J67"/>
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="F68:F78"/>
+    <mergeCell ref="H68:H78"/>
+    <mergeCell ref="J68:J78"/>
+    <mergeCell ref="D79:J112"/>
+    <mergeCell ref="D130:J132"/>
+    <mergeCell ref="D133:J133"/>
+    <mergeCell ref="D134:H138"/>
+    <mergeCell ref="J134:J138"/>
+    <mergeCell ref="H139:H147"/>
+    <mergeCell ref="J139:J147"/>
+    <mergeCell ref="D148:F152"/>
+    <mergeCell ref="H148:H152"/>
+    <mergeCell ref="J148:J152"/>
+    <mergeCell ref="D139:F147"/>
+    <mergeCell ref="D170:J171"/>
+    <mergeCell ref="D168:J169"/>
+    <mergeCell ref="D153:J153"/>
+    <mergeCell ref="D154:F161"/>
+    <mergeCell ref="H154:J157"/>
+    <mergeCell ref="H158:J161"/>
+    <mergeCell ref="D162:F166"/>
+    <mergeCell ref="H162:J164"/>
+    <mergeCell ref="H165:J166"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -3486,12 +3746,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1025" width="8.5703125"/>
   </cols>
@@ -3502,12 +3762,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1025" width="8.5703125"/>
   </cols>
